--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itga2b</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itga2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N2">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O2">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P2">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q2">
-        <v>1.31113562469875</v>
+        <v>1.8558884069775</v>
       </c>
       <c r="R2">
-        <v>5.244542498795</v>
+        <v>7.42355362791</v>
       </c>
       <c r="S2">
-        <v>0.05355577489154288</v>
+        <v>0.02694652076307342</v>
       </c>
       <c r="T2">
-        <v>0.03122975689359299</v>
+        <v>0.01424181145054268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P3">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q3">
-        <v>2.723204832601</v>
+        <v>2.681424692155</v>
       </c>
       <c r="R3">
-        <v>16.339228995606</v>
+        <v>16.08854815293</v>
       </c>
       <c r="S3">
-        <v>0.11123436984778</v>
+        <v>0.03893287218677499</v>
       </c>
       <c r="T3">
-        <v>0.0972954551285955</v>
+        <v>0.03086528107583891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N4">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O4">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P4">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q4">
-        <v>0.2870839602828333</v>
+        <v>0.51477128856</v>
       </c>
       <c r="R4">
-        <v>1.722503761697</v>
+        <v>3.08862773136</v>
       </c>
       <c r="S4">
-        <v>0.01172647868172498</v>
+        <v>0.007474207588810197</v>
       </c>
       <c r="T4">
-        <v>0.01025701931835931</v>
+        <v>0.005925417393843309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N5">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O5">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P5">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q5">
-        <v>1.92580918106625</v>
+        <v>0.7946842689512499</v>
       </c>
       <c r="R5">
-        <v>7.703236724265</v>
+        <v>3.178737075805</v>
       </c>
       <c r="S5">
-        <v>0.07866326033887451</v>
+        <v>0.01153839642128994</v>
       </c>
       <c r="T5">
-        <v>0.04587058075091728</v>
+        <v>0.006098288818748607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N6">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O6">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P6">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q6">
-        <v>0.9224051593709999</v>
+        <v>0.7136773113408333</v>
       </c>
       <c r="R6">
-        <v>5.534430956225999</v>
+        <v>4.282063868044999</v>
       </c>
       <c r="S6">
-        <v>0.03767735552561263</v>
+        <v>0.01036221812468778</v>
       </c>
       <c r="T6">
-        <v>0.03295596009509414</v>
+        <v>0.008214980221682277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N7">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O7">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P7">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q7">
-        <v>0.8314940792501666</v>
+        <v>0.2037299040266667</v>
       </c>
       <c r="R7">
-        <v>4.988964475501</v>
+        <v>1.22237942416</v>
       </c>
       <c r="S7">
-        <v>0.03396392325332803</v>
+        <v>0.002958050747164392</v>
       </c>
       <c r="T7">
-        <v>0.02970786255549761</v>
+        <v>0.002345089448058705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N8">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O8">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P8">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q8">
-        <v>0.2228491025175</v>
+        <v>0.320353767153</v>
       </c>
       <c r="R8">
-        <v>1.337094615105</v>
+        <v>1.922122602918</v>
       </c>
       <c r="S8">
-        <v>0.009102686361643006</v>
+        <v>0.004651367725377336</v>
       </c>
       <c r="T8">
-        <v>0.007962017617943924</v>
+        <v>0.003687520703381973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P9">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q9">
         <v>0.462853530546</v>
@@ -1013,10 +1013,10 @@
         <v>4.165681774914001</v>
       </c>
       <c r="S9">
-        <v>0.01890611392347219</v>
+        <v>0.006720389126969119</v>
       </c>
       <c r="T9">
-        <v>0.02480544855085563</v>
+        <v>0.007991705505869679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N10">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O10">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P10">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q10">
-        <v>0.048794649227</v>
+        <v>0.088857132192</v>
       </c>
       <c r="R10">
-        <v>0.439151843043</v>
+        <v>0.799714189728</v>
       </c>
       <c r="S10">
-        <v>0.001993108264839828</v>
+        <v>0.001290158690876459</v>
       </c>
       <c r="T10">
-        <v>0.002615024151440722</v>
+        <v>0.001534221920565046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N11">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O11">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P11">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q11">
-        <v>0.3273230011725</v>
+        <v>0.1371742494315</v>
       </c>
       <c r="R11">
-        <v>1.963938007035</v>
+        <v>0.8230454965889999</v>
       </c>
       <c r="S11">
-        <v>0.01337011720022968</v>
+        <v>0.001991697747864503</v>
       </c>
       <c r="T11">
-        <v>0.01169469148698531</v>
+        <v>0.001578982164763977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N12">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O12">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P12">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q12">
-        <v>0.156777954966</v>
+        <v>0.123191251349</v>
       </c>
       <c r="R12">
-        <v>1.411001594694</v>
+        <v>1.108721262141</v>
       </c>
       <c r="S12">
-        <v>0.006403887367521353</v>
+        <v>0.001788671991173805</v>
       </c>
       <c r="T12">
-        <v>0.008402112632110461</v>
+        <v>0.002127040492743816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N13">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O13">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P13">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q13">
-        <v>0.141326118991</v>
+        <v>0.035166792352</v>
       </c>
       <c r="R13">
-        <v>1.271935070919</v>
+        <v>0.316501131168</v>
       </c>
       <c r="S13">
-        <v>0.005772728367987433</v>
+        <v>0.0005106032758872383</v>
       </c>
       <c r="T13">
-        <v>0.007574011090264214</v>
+        <v>0.0006071956450925745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N14">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O14">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P14">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q14">
-        <v>0.3764767311833334</v>
+        <v>1.380659271789</v>
       </c>
       <c r="R14">
-        <v>2.2588603871</v>
+        <v>8.283955630733999</v>
       </c>
       <c r="S14">
-        <v>0.01537789278801047</v>
+        <v>0.02004644438432723</v>
       </c>
       <c r="T14">
-        <v>0.0134508702640714</v>
+        <v>0.01589246068271352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P15">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q15">
-        <v>0.7819353195866667</v>
+        <v>1.994804132031333</v>
       </c>
       <c r="R15">
-        <v>7.037417876280001</v>
+        <v>17.953237188282</v>
       </c>
       <c r="S15">
-        <v>0.03193960347553822</v>
+        <v>0.02896350381841609</v>
       </c>
       <c r="T15">
-        <v>0.04190581914158317</v>
+        <v>0.03444261761659401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N16">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O16">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P16">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q16">
-        <v>0.08243268576222224</v>
+        <v>0.382956081696</v>
       </c>
       <c r="R16">
-        <v>0.7418941718600001</v>
+        <v>3.446604735264</v>
       </c>
       <c r="S16">
-        <v>0.003367116474621921</v>
+        <v>0.005560320312347105</v>
       </c>
       <c r="T16">
-        <v>0.004417768496162384</v>
+        <v>0.006612182957718718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N17">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O17">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P17">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q17">
-        <v>0.55297280595</v>
+        <v>0.5911929833428332</v>
       </c>
       <c r="R17">
-        <v>3.3178368357</v>
+        <v>3.547157900056999</v>
       </c>
       <c r="S17">
-        <v>0.02258720345838168</v>
+        <v>0.008583810287696952</v>
       </c>
       <c r="T17">
-        <v>0.01975677341070756</v>
+        <v>0.006805090463411571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N18">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O18">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P18">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q18">
-        <v>0.26485748132</v>
+        <v>0.5309291190481111</v>
       </c>
       <c r="R18">
-        <v>2.38371733188</v>
+        <v>4.778362071433</v>
       </c>
       <c r="S18">
-        <v>0.01081859678030947</v>
+        <v>0.00770881076489404</v>
       </c>
       <c r="T18">
-        <v>0.01419435781000167</v>
+        <v>0.009167109860689806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N19">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O19">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P19">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q19">
-        <v>0.2387534645977778</v>
+        <v>0.1515616886648889</v>
       </c>
       <c r="R19">
-        <v>2.14878118138</v>
+        <v>1.364055197984</v>
       </c>
       <c r="S19">
-        <v>0.009752329632193793</v>
+        <v>0.002200595776739722</v>
       </c>
       <c r="T19">
-        <v>0.01279537994542772</v>
+        <v>0.002616889149259112</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N20">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O20">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P20">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q20">
-        <v>0.12132303781125</v>
+        <v>14.593121585469</v>
       </c>
       <c r="R20">
-        <v>0.485292151245</v>
+        <v>87.558729512814</v>
       </c>
       <c r="S20">
-        <v>0.004955665287235517</v>
+        <v>0.2118844281382823</v>
       </c>
       <c r="T20">
-        <v>0.002889776545662904</v>
+        <v>0.167978165050535</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P21">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q21">
-        <v>0.251985741711</v>
+        <v>21.084433960458</v>
       </c>
       <c r="R21">
-        <v>1.511914450266</v>
+        <v>189.759905644122</v>
       </c>
       <c r="S21">
-        <v>0.01029282661894989</v>
+        <v>0.3061348599178031</v>
       </c>
       <c r="T21">
-        <v>0.009003019946271026</v>
+        <v>0.3640473191836044</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N22">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O22">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P22">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q22">
-        <v>0.0265646798945</v>
+        <v>4.047721821216</v>
       </c>
       <c r="R22">
-        <v>0.159388079367</v>
+        <v>36.429496390944</v>
       </c>
       <c r="S22">
-        <v>0.001085083792778965</v>
+        <v>0.05877078583414237</v>
       </c>
       <c r="T22">
-        <v>0.0009491106176586028</v>
+        <v>0.06988863350935566</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N23">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O23">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P23">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q23">
-        <v>0.17820049710375</v>
+        <v>6.248718465649499</v>
       </c>
       <c r="R23">
-        <v>0.712801988415</v>
+        <v>37.492310793897</v>
       </c>
       <c r="S23">
-        <v>0.007278930973019859</v>
+        <v>0.09072809617440855</v>
       </c>
       <c r="T23">
-        <v>0.004244532829428839</v>
+        <v>0.07192760340065812</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N24">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O24">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P24">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q24">
-        <v>0.08535272318099998</v>
+        <v>5.611748927377</v>
       </c>
       <c r="R24">
-        <v>0.5121163390859998</v>
+        <v>50.505740346393</v>
       </c>
       <c r="S24">
-        <v>0.003486390837799167</v>
+        <v>0.08147963445441825</v>
       </c>
       <c r="T24">
-        <v>0.003049506944517518</v>
+        <v>0.09689338384774389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N25">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O25">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P25">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q25">
-        <v>0.07694046726849998</v>
+        <v>1.601957988896</v>
       </c>
       <c r="R25">
-        <v>0.461642803611</v>
+        <v>14.417621900064</v>
       </c>
       <c r="S25">
-        <v>0.003142776588065533</v>
+        <v>0.02325958503057815</v>
       </c>
       <c r="T25">
-        <v>0.002748951416021647</v>
+        <v>0.02765967122456622</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N26">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O26">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P26">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q26">
-        <v>0.7554311055208334</v>
+        <v>0.7466839253159999</v>
       </c>
       <c r="R26">
-        <v>4.532586633125001</v>
+        <v>4.480103551896</v>
       </c>
       <c r="S26">
-        <v>0.03085698952207084</v>
+        <v>0.01084145674995032</v>
       </c>
       <c r="T26">
-        <v>0.02699026248412825</v>
+        <v>0.008594911987316343</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P27">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q27">
-        <v>1.569016658916667</v>
+        <v>1.078823870578667</v>
       </c>
       <c r="R27">
-        <v>14.12114993025</v>
+        <v>9.709414835208001</v>
       </c>
       <c r="S27">
-        <v>0.06408940570532408</v>
+        <v>0.0156639535647467</v>
       </c>
       <c r="T27">
-        <v>0.08408742602067017</v>
+        <v>0.01862715113395969</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N28">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O28">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P28">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q28">
-        <v>0.1654078719305556</v>
+        <v>0.207109137024</v>
       </c>
       <c r="R28">
-        <v>1.488670847375</v>
+        <v>1.863982233216</v>
       </c>
       <c r="S28">
-        <v>0.006756392388039454</v>
+        <v>0.003007115427876636</v>
       </c>
       <c r="T28">
-        <v>0.008864610911015059</v>
+        <v>0.003575980567152924</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N29">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O29">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P29">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q29">
-        <v>1.1095847990625</v>
+        <v>0.3197271813846666</v>
       </c>
       <c r="R29">
-        <v>6.657508794375</v>
+        <v>1.918363088308</v>
       </c>
       <c r="S29">
-        <v>0.04532305628971271</v>
+        <v>0.004642270030519842</v>
       </c>
       <c r="T29">
-        <v>0.0396435687599174</v>
+        <v>0.003680308214471018</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N30">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O30">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P30">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q30">
-        <v>0.5314580247499999</v>
+        <v>0.2871354625835555</v>
       </c>
       <c r="R30">
-        <v>4.783122222749999</v>
+        <v>2.584219163252</v>
       </c>
       <c r="S30">
-        <v>0.02170839217670916</v>
+        <v>0.004169055464344131</v>
       </c>
       <c r="T30">
-        <v>0.02848213056584928</v>
+        <v>0.004957728321857063</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N31">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O31">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P31">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q31">
-        <v>0.4790781973194444</v>
+        <v>0.08196712898844444</v>
       </c>
       <c r="R31">
-        <v>4.311703775875</v>
+        <v>0.737704160896</v>
       </c>
       <c r="S31">
-        <v>0.01956884063537015</v>
+        <v>0.001190119478559474</v>
       </c>
       <c r="T31">
-        <v>0.02567496797837019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.2502825</v>
-      </c>
-      <c r="N32">
-        <v>2.500565</v>
-      </c>
-      <c r="O32">
-        <v>0.1638687485091313</v>
-      </c>
-      <c r="P32">
-        <v>0.1262743888059313</v>
-      </c>
-      <c r="Q32">
-        <v>1.224567523061667</v>
-      </c>
-      <c r="R32">
-        <v>7.34740513837</v>
-      </c>
-      <c r="S32">
-        <v>0.05001973965862862</v>
-      </c>
-      <c r="T32">
-        <v>0.04375170500053186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.596814</v>
-      </c>
-      <c r="N33">
-        <v>7.790442000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.3403524085884521</v>
-      </c>
-      <c r="P33">
-        <v>0.3934044114342388</v>
-      </c>
-      <c r="Q33">
-        <v>2.543404460857334</v>
-      </c>
-      <c r="R33">
-        <v>22.890640147716</v>
-      </c>
-      <c r="S33">
-        <v>0.1038900890173877</v>
-      </c>
-      <c r="T33">
-        <v>0.1363072426462633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2737596666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.8212790000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.03588041420154535</v>
-      </c>
-      <c r="P34">
-        <v>0.04147322855600494</v>
-      </c>
-      <c r="Q34">
-        <v>0.2681291603491112</v>
-      </c>
-      <c r="R34">
-        <v>2.413162443142</v>
-      </c>
-      <c r="S34">
-        <v>0.0109522345995402</v>
-      </c>
-      <c r="T34">
-        <v>0.01436969506136885</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.8364275</v>
-      </c>
-      <c r="N35">
-        <v>3.672855</v>
-      </c>
-      <c r="O35">
-        <v>0.2406920645156217</v>
-      </c>
-      <c r="P35">
-        <v>0.1854730912005122</v>
-      </c>
-      <c r="Q35">
-        <v>1.798657083465</v>
-      </c>
-      <c r="R35">
-        <v>10.79194250079</v>
-      </c>
-      <c r="S35">
-        <v>0.07346949625540325</v>
-      </c>
-      <c r="T35">
-        <v>0.06426294396255583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.8795939999999999</v>
-      </c>
-      <c r="N36">
-        <v>2.638782</v>
-      </c>
-      <c r="O36">
-        <v>0.1152843201245645</v>
-      </c>
-      <c r="P36">
-        <v>0.1332541182661091</v>
-      </c>
-      <c r="Q36">
-        <v>0.861503097004</v>
-      </c>
-      <c r="R36">
-        <v>7.753527873035999</v>
-      </c>
-      <c r="S36">
-        <v>0.03518969743661274</v>
-      </c>
-      <c r="T36">
-        <v>0.04617005021853599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.7929023333333333</v>
-      </c>
-      <c r="N37">
-        <v>2.378707</v>
-      </c>
-      <c r="O37">
-        <v>0.103922044060685</v>
-      </c>
-      <c r="P37">
-        <v>0.1201207617372036</v>
-      </c>
-      <c r="Q37">
-        <v>0.7765944467428889</v>
-      </c>
-      <c r="R37">
-        <v>6.989350020686</v>
-      </c>
-      <c r="S37">
-        <v>0.03172144558374007</v>
-      </c>
-      <c r="T37">
-        <v>0.04161958875162219</v>
+        <v>0.00141525798726122</v>
       </c>
     </row>
   </sheetData>
